--- a/aqi_feedback.xlsx
+++ b/aqi_feedback.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AQI������Ϣ" r:id="rId3" sheetId="1"/>
+    <sheet name="AQI反馈信息" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
-    <t>���</t>
-  </si>
-  <si>
-    <t>����</t>
-  </si>
-  <si>
-    <t>ʡ</t>
-  </si>
-  <si>
-    <t>��</t>
-  </si>
-  <si>
-    <t>��ַ</t>
-  </si>
-  <si>
-    <t>������Ϣ</t>
-  </si>
-  <si>
-    <t>Ԥ���ȼ�</t>
-  </si>
-  <si>
-    <t>״̬</t>
-  </si>
-  <si>
-    <t>��������</t>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>反馈信息</t>
+  </si>
+  <si>
+    <t>预估等级</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>反馈日期</t>
   </si>
   <si>
     <t>tom</t>
